--- a/natmiOut/YoungD2/LR-pairs_lrc2p/Flt3l-Flt3.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/Flt3l-Flt3.xlsx
@@ -537,52 +537,52 @@
         <v>22</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>5.44959112965808</v>
+        <v>5.795774333333334</v>
       </c>
       <c r="H2">
-        <v>5.44959112965808</v>
+        <v>17.387323</v>
       </c>
       <c r="I2">
-        <v>0.2182126302437686</v>
+        <v>0.2166180251727471</v>
       </c>
       <c r="J2">
-        <v>0.2182126302437686</v>
+        <v>0.2166180251727471</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.979896164756749</v>
+        <v>1.181145333333333</v>
       </c>
       <c r="N2">
-        <v>0.979896164756749</v>
+        <v>3.543436</v>
       </c>
       <c r="O2">
-        <v>0.1448887352866615</v>
+        <v>0.1469875775727626</v>
       </c>
       <c r="P2">
-        <v>0.1448887352866615</v>
+        <v>0.1469875775727626</v>
       </c>
       <c r="Q2">
-        <v>5.340033447444352</v>
+        <v>6.845651806869779</v>
       </c>
       <c r="R2">
-        <v>5.340033447444352</v>
+        <v>61.61086626182801</v>
       </c>
       <c r="S2">
-        <v>0.03161655201959554</v>
+        <v>0.0318401587787378</v>
       </c>
       <c r="T2">
-        <v>0.03161655201959554</v>
+        <v>0.0318401587787378</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,52 +599,52 @@
         <v>23</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>5.44959112965808</v>
+        <v>5.795774333333334</v>
       </c>
       <c r="H3">
-        <v>5.44959112965808</v>
+        <v>17.387323</v>
       </c>
       <c r="I3">
-        <v>0.2182126302437686</v>
+        <v>0.2166180251727471</v>
       </c>
       <c r="J3">
-        <v>0.2182126302437686</v>
+        <v>0.2166180251727471</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>4.32976449045015</v>
+        <v>5.122951333333333</v>
       </c>
       <c r="N3">
-        <v>4.32976449045015</v>
+        <v>15.368854</v>
       </c>
       <c r="O3">
-        <v>0.6402046703245839</v>
+        <v>0.637525446919166</v>
       </c>
       <c r="P3">
-        <v>0.6402046703245839</v>
+        <v>0.637525446919166</v>
       </c>
       <c r="Q3">
-        <v>23.59544616066567</v>
+        <v>29.69146984864911</v>
       </c>
       <c r="R3">
-        <v>23.59544616066567</v>
+        <v>267.223228637842</v>
       </c>
       <c r="S3">
-        <v>0.1397007450058722</v>
+        <v>0.1380995033090028</v>
       </c>
       <c r="T3">
-        <v>0.1397007450058722</v>
+        <v>0.1380995033090028</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,52 +661,52 @@
         <v>24</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>5.44959112965808</v>
+        <v>5.795774333333334</v>
       </c>
       <c r="H4">
-        <v>5.44959112965808</v>
+        <v>17.387323</v>
       </c>
       <c r="I4">
-        <v>0.2182126302437686</v>
+        <v>0.2166180251727471</v>
       </c>
       <c r="J4">
-        <v>0.2182126302437686</v>
+        <v>0.2166180251727471</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.4534335413021</v>
+        <v>1.731584666666667</v>
       </c>
       <c r="N4">
-        <v>1.4534335413021</v>
+        <v>5.194754</v>
       </c>
       <c r="O4">
-        <v>0.2149065943887547</v>
+        <v>0.2154869755080714</v>
       </c>
       <c r="P4">
-        <v>0.2149065943887547</v>
+        <v>0.2154869755080714</v>
       </c>
       <c r="Q4">
-        <v>7.920618534227454</v>
+        <v>10.03587396706022</v>
       </c>
       <c r="R4">
-        <v>7.920618534227454</v>
+        <v>90.32286570354201</v>
       </c>
       <c r="S4">
-        <v>0.04689533321830088</v>
+        <v>0.04667836308500656</v>
       </c>
       <c r="T4">
-        <v>0.04689533321830088</v>
+        <v>0.04667836308500656</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,52 +723,52 @@
         <v>22</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>4.81268745326991</v>
+        <v>4.872962999999999</v>
       </c>
       <c r="H5">
-        <v>4.81268745326991</v>
+        <v>14.618889</v>
       </c>
       <c r="I5">
-        <v>0.1927097212860266</v>
+        <v>0.1821277988221416</v>
       </c>
       <c r="J5">
-        <v>0.1927097212860266</v>
+        <v>0.1821277988221416</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.979896164756749</v>
+        <v>1.181145333333333</v>
       </c>
       <c r="N5">
-        <v>0.979896164756749</v>
+        <v>3.543436</v>
       </c>
       <c r="O5">
-        <v>0.1448887352866615</v>
+        <v>0.1469875775727626</v>
       </c>
       <c r="P5">
-        <v>0.1448887352866615</v>
+        <v>0.1469875775727626</v>
       </c>
       <c r="Q5">
-        <v>4.71593397763211</v>
+        <v>5.755677506956</v>
       </c>
       <c r="R5">
-        <v>4.71593397763211</v>
+        <v>51.801097562604</v>
       </c>
       <c r="S5">
-        <v>0.02792146779457743</v>
+        <v>0.02677052395752603</v>
       </c>
       <c r="T5">
-        <v>0.02792146779457743</v>
+        <v>0.02677052395752603</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,52 +785,52 @@
         <v>23</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>4.81268745326991</v>
+        <v>4.872962999999999</v>
       </c>
       <c r="H6">
-        <v>4.81268745326991</v>
+        <v>14.618889</v>
       </c>
       <c r="I6">
-        <v>0.1927097212860266</v>
+        <v>0.1821277988221416</v>
       </c>
       <c r="J6">
-        <v>0.1927097212860266</v>
+        <v>0.1821277988221416</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>4.32976449045015</v>
+        <v>5.122951333333333</v>
       </c>
       <c r="N6">
-        <v>4.32976449045015</v>
+        <v>15.368854</v>
       </c>
       <c r="O6">
-        <v>0.6402046703245839</v>
+        <v>0.637525446919166</v>
       </c>
       <c r="P6">
-        <v>0.6402046703245839</v>
+        <v>0.637525446919166</v>
       </c>
       <c r="Q6">
-        <v>20.83780323880302</v>
+        <v>24.963952298134</v>
       </c>
       <c r="R6">
-        <v>20.83780323880302</v>
+        <v>224.675570683206</v>
       </c>
       <c r="S6">
-        <v>0.1233736635842631</v>
+        <v>0.1161111063404898</v>
       </c>
       <c r="T6">
-        <v>0.1233736635842631</v>
+        <v>0.1161111063404898</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,52 +847,52 @@
         <v>24</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>4.81268745326991</v>
+        <v>4.872962999999999</v>
       </c>
       <c r="H7">
-        <v>4.81268745326991</v>
+        <v>14.618889</v>
       </c>
       <c r="I7">
-        <v>0.1927097212860266</v>
+        <v>0.1821277988221416</v>
       </c>
       <c r="J7">
-        <v>0.1927097212860266</v>
+        <v>0.1821277988221416</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.4534335413021</v>
+        <v>1.731584666666667</v>
       </c>
       <c r="N7">
-        <v>1.4534335413021</v>
+        <v>5.194754</v>
       </c>
       <c r="O7">
-        <v>0.2149065943887547</v>
+        <v>0.2154869755080714</v>
       </c>
       <c r="P7">
-        <v>0.2149065943887547</v>
+        <v>0.2154869755080714</v>
       </c>
       <c r="Q7">
-        <v>6.994921368386271</v>
+        <v>8.437948012033999</v>
       </c>
       <c r="R7">
-        <v>6.994921368386271</v>
+        <v>75.94153210830599</v>
       </c>
       <c r="S7">
-        <v>0.04141458990718608</v>
+        <v>0.03924616852412578</v>
       </c>
       <c r="T7">
-        <v>0.04141458990718608</v>
+        <v>0.03924616852412578</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,52 +909,52 @@
         <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>3.83949495684406</v>
+        <v>4.523564</v>
       </c>
       <c r="H8">
-        <v>3.83949495684406</v>
+        <v>13.570692</v>
       </c>
       <c r="I8">
-        <v>0.1537411290878247</v>
+        <v>0.1690689533557062</v>
       </c>
       <c r="J8">
-        <v>0.1537411290878247</v>
+        <v>0.1690689533557062</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.979896164756749</v>
+        <v>1.181145333333333</v>
       </c>
       <c r="N8">
-        <v>0.979896164756749</v>
+        <v>3.543436</v>
       </c>
       <c r="O8">
-        <v>0.1448887352866615</v>
+        <v>0.1469875775727626</v>
       </c>
       <c r="P8">
-        <v>0.1448887352866615</v>
+        <v>0.1469875775727626</v>
       </c>
       <c r="Q8">
-        <v>3.762306382814374</v>
+        <v>5.342986508634668</v>
       </c>
       <c r="R8">
-        <v>3.762306382814374</v>
+        <v>48.08687857771201</v>
       </c>
       <c r="S8">
-        <v>0.02227535775507829</v>
+        <v>0.02485103589651764</v>
       </c>
       <c r="T8">
-        <v>0.02227535775507829</v>
+        <v>0.02485103589651764</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,52 +971,52 @@
         <v>23</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>3.83949495684406</v>
+        <v>4.523564</v>
       </c>
       <c r="H9">
-        <v>3.83949495684406</v>
+        <v>13.570692</v>
       </c>
       <c r="I9">
-        <v>0.1537411290878247</v>
+        <v>0.1690689533557062</v>
       </c>
       <c r="J9">
-        <v>0.1537411290878247</v>
+        <v>0.1690689533557062</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>4.32976449045015</v>
+        <v>5.122951333333333</v>
       </c>
       <c r="N9">
-        <v>4.32976449045015</v>
+        <v>15.368854</v>
       </c>
       <c r="O9">
-        <v>0.6402046703245839</v>
+        <v>0.637525446919166</v>
       </c>
       <c r="P9">
-        <v>0.6402046703245839</v>
+        <v>0.637525446919166</v>
       </c>
       <c r="Q9">
-        <v>16.62410892540584</v>
+        <v>23.17399822521867</v>
       </c>
       <c r="R9">
-        <v>16.62410892540584</v>
+        <v>208.565984026968</v>
       </c>
       <c r="S9">
-        <v>0.09842578886300012</v>
+        <v>0.1077857600482522</v>
       </c>
       <c r="T9">
-        <v>0.09842578886300012</v>
+        <v>0.1077857600482522</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,52 +1033,52 @@
         <v>24</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>3.83949495684406</v>
+        <v>4.523564</v>
       </c>
       <c r="H10">
-        <v>3.83949495684406</v>
+        <v>13.570692</v>
       </c>
       <c r="I10">
-        <v>0.1537411290878247</v>
+        <v>0.1690689533557062</v>
       </c>
       <c r="J10">
-        <v>0.1537411290878247</v>
+        <v>0.1690689533557062</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>1.4534335413021</v>
+        <v>1.731584666666667</v>
       </c>
       <c r="N10">
-        <v>1.4534335413021</v>
+        <v>5.194754</v>
       </c>
       <c r="O10">
-        <v>0.2149065943887547</v>
+        <v>0.2154869755080714</v>
       </c>
       <c r="P10">
-        <v>0.2149065943887547</v>
+        <v>0.2154869755080714</v>
       </c>
       <c r="Q10">
-        <v>5.580450751937416</v>
+        <v>7.832934061085333</v>
       </c>
       <c r="R10">
-        <v>5.580450751937416</v>
+        <v>70.496406549768</v>
       </c>
       <c r="S10">
-        <v>0.03303998246974631</v>
+        <v>0.03643215741093633</v>
       </c>
       <c r="T10">
-        <v>0.03303998246974631</v>
+        <v>0.03643215741093633</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,52 +1095,52 @@
         <v>22</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>4.63903778290484</v>
+        <v>5.027470333333333</v>
       </c>
       <c r="H11">
-        <v>4.63903778290484</v>
+        <v>15.082411</v>
       </c>
       <c r="I11">
-        <v>0.1857564379277386</v>
+        <v>0.1879025359834701</v>
       </c>
       <c r="J11">
-        <v>0.1857564379277386</v>
+        <v>0.1879025359834701</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.979896164756749</v>
+        <v>1.181145333333333</v>
       </c>
       <c r="N11">
-        <v>0.979896164756749</v>
+        <v>3.543436</v>
       </c>
       <c r="O11">
-        <v>0.1448887352866615</v>
+        <v>0.1469875775727626</v>
       </c>
       <c r="P11">
-        <v>0.1448887352866615</v>
+        <v>0.1469875775727626</v>
       </c>
       <c r="Q11">
-        <v>4.545775331630105</v>
+        <v>5.938173122688445</v>
       </c>
       <c r="R11">
-        <v>4.545775331630105</v>
+        <v>53.44355810419601</v>
       </c>
       <c r="S11">
-        <v>0.02691401536270529</v>
+        <v>0.02761933858398912</v>
       </c>
       <c r="T11">
-        <v>0.02691401536270529</v>
+        <v>0.02761933858398912</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,52 +1157,52 @@
         <v>23</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>4.63903778290484</v>
+        <v>5.027470333333333</v>
       </c>
       <c r="H12">
-        <v>4.63903778290484</v>
+        <v>15.082411</v>
       </c>
       <c r="I12">
-        <v>0.1857564379277386</v>
+        <v>0.1879025359834701</v>
       </c>
       <c r="J12">
-        <v>0.1857564379277386</v>
+        <v>0.1879025359834701</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>4.32976449045015</v>
+        <v>5.122951333333333</v>
       </c>
       <c r="N12">
-        <v>4.32976449045015</v>
+        <v>15.368854</v>
       </c>
       <c r="O12">
-        <v>0.6402046703245839</v>
+        <v>0.637525446919166</v>
       </c>
       <c r="P12">
-        <v>0.6402046703245839</v>
+        <v>0.637525446919166</v>
       </c>
       <c r="Q12">
-        <v>20.08594106227796</v>
+        <v>25.75548584744378</v>
       </c>
       <c r="R12">
-        <v>20.08594106227796</v>
+        <v>231.799372626994</v>
       </c>
       <c r="S12">
-        <v>0.1189221391041969</v>
+        <v>0.1197926482301065</v>
       </c>
       <c r="T12">
-        <v>0.1189221391041969</v>
+        <v>0.1197926482301065</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,52 +1219,52 @@
         <v>24</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>4.63903778290484</v>
+        <v>5.027470333333333</v>
       </c>
       <c r="H13">
-        <v>4.63903778290484</v>
+        <v>15.082411</v>
       </c>
       <c r="I13">
-        <v>0.1857564379277386</v>
+        <v>0.1879025359834701</v>
       </c>
       <c r="J13">
-        <v>0.1857564379277386</v>
+        <v>0.1879025359834701</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>1.4534335413021</v>
+        <v>1.731584666666667</v>
       </c>
       <c r="N13">
-        <v>1.4534335413021</v>
+        <v>5.194754</v>
       </c>
       <c r="O13">
-        <v>0.2149065943887547</v>
+        <v>0.2154869755080714</v>
       </c>
       <c r="P13">
-        <v>0.2149065943887547</v>
+        <v>0.2154869755080714</v>
       </c>
       <c r="Q13">
-        <v>6.742533113041624</v>
+        <v>8.705490541321556</v>
       </c>
       <c r="R13">
-        <v>6.742533113041624</v>
+        <v>78.349414871894</v>
       </c>
       <c r="S13">
-        <v>0.0399202834608364</v>
+        <v>0.04049054916937454</v>
       </c>
       <c r="T13">
-        <v>0.0399202834608364</v>
+        <v>0.04049054916937454</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,52 +1281,52 @@
         <v>22</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>3.54506797960309</v>
+        <v>3.600244</v>
       </c>
       <c r="H14">
-        <v>3.54506797960309</v>
+        <v>10.800732</v>
       </c>
       <c r="I14">
-        <v>0.1419516785419256</v>
+        <v>0.1345597155042265</v>
       </c>
       <c r="J14">
-        <v>0.1419516785419256</v>
+        <v>0.1345597155042266</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.979896164756749</v>
+        <v>1.181145333333333</v>
       </c>
       <c r="N14">
-        <v>0.979896164756749</v>
+        <v>3.543436</v>
       </c>
       <c r="O14">
-        <v>0.1448887352866615</v>
+        <v>0.1469875775727626</v>
       </c>
       <c r="P14">
-        <v>0.1448887352866615</v>
+        <v>0.1469875775727626</v>
       </c>
       <c r="Q14">
-        <v>3.473798517015025</v>
+        <v>4.252411399461334</v>
       </c>
       <c r="R14">
-        <v>3.473798517015025</v>
+        <v>38.271702595152</v>
       </c>
       <c r="S14">
-        <v>0.02056719917575833</v>
+        <v>0.01977860662084636</v>
       </c>
       <c r="T14">
-        <v>0.02056719917575833</v>
+        <v>0.01977860662084636</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,52 +1343,52 @@
         <v>23</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>3.54506797960309</v>
+        <v>3.600244</v>
       </c>
       <c r="H15">
-        <v>3.54506797960309</v>
+        <v>10.800732</v>
       </c>
       <c r="I15">
-        <v>0.1419516785419256</v>
+        <v>0.1345597155042265</v>
       </c>
       <c r="J15">
-        <v>0.1419516785419256</v>
+        <v>0.1345597155042266</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>4.32976449045015</v>
+        <v>5.122951333333333</v>
       </c>
       <c r="N15">
-        <v>4.32976449045015</v>
+        <v>15.368854</v>
       </c>
       <c r="O15">
-        <v>0.6402046703245839</v>
+        <v>0.637525446919166</v>
       </c>
       <c r="P15">
-        <v>0.6402046703245839</v>
+        <v>0.637525446919166</v>
       </c>
       <c r="Q15">
-        <v>15.34930945431732</v>
+        <v>18.44387480012533</v>
       </c>
       <c r="R15">
-        <v>15.34930945431732</v>
+        <v>165.994873201128</v>
       </c>
       <c r="S15">
-        <v>0.09087812756295481</v>
+        <v>0.08578524276414787</v>
       </c>
       <c r="T15">
-        <v>0.09087812756295481</v>
+        <v>0.08578524276414788</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,52 +1405,52 @@
         <v>24</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>3.54506797960309</v>
+        <v>3.600244</v>
       </c>
       <c r="H16">
-        <v>3.54506797960309</v>
+        <v>10.800732</v>
       </c>
       <c r="I16">
-        <v>0.1419516785419256</v>
+        <v>0.1345597155042265</v>
       </c>
       <c r="J16">
-        <v>0.1419516785419256</v>
+        <v>0.1345597155042266</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>1.4534335413021</v>
+        <v>1.731584666666667</v>
       </c>
       <c r="N16">
-        <v>1.4534335413021</v>
+        <v>5.194754</v>
       </c>
       <c r="O16">
-        <v>0.2149065943887547</v>
+        <v>0.2154869755080714</v>
       </c>
       <c r="P16">
-        <v>0.2149065943887547</v>
+        <v>0.2154869755080714</v>
       </c>
       <c r="Q16">
-        <v>5.1525207077512</v>
+        <v>6.234127306658666</v>
       </c>
       <c r="R16">
-        <v>5.1525207077512</v>
+        <v>56.107145759928</v>
       </c>
       <c r="S16">
-        <v>0.0305063518032125</v>
+        <v>0.02899586611923232</v>
       </c>
       <c r="T16">
-        <v>0.0305063518032125</v>
+        <v>0.02899586611923233</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,52 +1467,52 @@
         <v>22</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>2.68788653139454</v>
+        <v>2.935718666666666</v>
       </c>
       <c r="H17">
-        <v>2.68788653139454</v>
+        <v>8.807155999999999</v>
       </c>
       <c r="I17">
-        <v>0.1076284029127159</v>
+        <v>0.1097229711617085</v>
       </c>
       <c r="J17">
-        <v>0.1076284029127159</v>
+        <v>0.1097229711617085</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>0.979896164756749</v>
+        <v>1.181145333333333</v>
       </c>
       <c r="N17">
-        <v>0.979896164756749</v>
+        <v>3.543436</v>
       </c>
       <c r="O17">
-        <v>0.1448887352866615</v>
+        <v>0.1469875775727626</v>
       </c>
       <c r="P17">
-        <v>0.1448887352866615</v>
+        <v>0.1469875775727626</v>
       </c>
       <c r="Q17">
-        <v>2.633849703414831</v>
+        <v>3.467510403112889</v>
       </c>
       <c r="R17">
-        <v>2.633849703414831</v>
+        <v>31.207593628016</v>
       </c>
       <c r="S17">
-        <v>0.01559414317894665</v>
+        <v>0.01612791373514562</v>
       </c>
       <c r="T17">
-        <v>0.01559414317894665</v>
+        <v>0.01612791373514562</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1529,52 +1529,52 @@
         <v>23</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>2.68788653139454</v>
+        <v>2.935718666666666</v>
       </c>
       <c r="H18">
-        <v>2.68788653139454</v>
+        <v>8.807155999999999</v>
       </c>
       <c r="I18">
-        <v>0.1076284029127159</v>
+        <v>0.1097229711617085</v>
       </c>
       <c r="J18">
-        <v>0.1076284029127159</v>
+        <v>0.1097229711617085</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>4.32976449045015</v>
+        <v>5.122951333333333</v>
       </c>
       <c r="N18">
-        <v>4.32976449045015</v>
+        <v>15.368854</v>
       </c>
       <c r="O18">
-        <v>0.6402046703245839</v>
+        <v>0.637525446919166</v>
       </c>
       <c r="P18">
-        <v>0.6402046703245839</v>
+        <v>0.637525446919166</v>
       </c>
       <c r="Q18">
-        <v>11.6379156579913</v>
+        <v>15.03954385769155</v>
       </c>
       <c r="R18">
-        <v>11.6379156579913</v>
+        <v>135.355894719224</v>
       </c>
       <c r="S18">
-        <v>0.0689042062042968</v>
+        <v>0.06995118622716695</v>
       </c>
       <c r="T18">
-        <v>0.0689042062042968</v>
+        <v>0.06995118622716695</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1591,52 +1591,52 @@
         <v>24</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>2.68788653139454</v>
+        <v>2.935718666666666</v>
       </c>
       <c r="H19">
-        <v>2.68788653139454</v>
+        <v>8.807155999999999</v>
       </c>
       <c r="I19">
-        <v>0.1076284029127159</v>
+        <v>0.1097229711617085</v>
       </c>
       <c r="J19">
-        <v>0.1076284029127159</v>
+        <v>0.1097229711617085</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>1.4534335413021</v>
+        <v>1.731584666666667</v>
       </c>
       <c r="N19">
-        <v>1.4534335413021</v>
+        <v>5.194754</v>
       </c>
       <c r="O19">
-        <v>0.2149065943887547</v>
+        <v>0.2154869755080714</v>
       </c>
       <c r="P19">
-        <v>0.2149065943887547</v>
+        <v>0.2154869755080714</v>
       </c>
       <c r="Q19">
-        <v>3.906664439942985</v>
+        <v>5.08344542884711</v>
       </c>
       <c r="R19">
-        <v>3.906664439942985</v>
+        <v>45.75100885962399</v>
       </c>
       <c r="S19">
-        <v>0.02313005352947251</v>
+        <v>0.0236438711993959</v>
       </c>
       <c r="T19">
-        <v>0.02313005352947251</v>
+        <v>0.0236438711993959</v>
       </c>
     </row>
   </sheetData>
